--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,90 +55,87 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>insane</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>boring</t>
   </si>
   <si>
-    <t>dangerous</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -160,18 +157,18 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
@@ -181,61 +178,61 @@
     <t>important</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>essential</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>opening</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>really</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>watching</t>
   </si>
   <si>
     <t>media</t>
@@ -244,22 +241,16 @@
     <t>netflix</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>watch</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>’</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -620,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -760,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -810,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -860,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -889,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9903846153846154</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C7">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.86</v>
@@ -939,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9333333333333333</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.7719298245614035</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8939393939393939</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>0.7</v>
@@ -1060,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>0.6896551724137931</v>
@@ -1089,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,16 +1101,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.68</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12">
         <v>0.631578947368421</v>
@@ -1189,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7272727272727273</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,16 +1251,16 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.5833333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1281,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L15">
         <v>7</v>
@@ -1331,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6923076923076923</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,16 +1351,16 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1389,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6875</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1407,31 +1398,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.5185185185185185</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L17">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>13</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>14</v>
-      </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.4583333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1481,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1489,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1507,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1531,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L20">
         <v>6</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="L20">
-        <v>14</v>
-      </c>
       <c r="M20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1581,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1589,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1607,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.3157894736842105</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1631,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1639,13 +1630,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5942028985507246</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C22">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1657,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.2777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1681,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1689,13 +1680,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5882352941176471</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1707,19 +1698,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.2608695652173913</v>
+        <v>0.2449908925318761</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1731,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>829</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1739,13 +1730,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5882352941176471</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1757,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.2367941712204007</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L24">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1781,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>838</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,13 +1780,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5319148936170213</v>
+        <v>0.5625</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1807,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.2033898305084746</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1831,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1839,13 +1830,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5217391304347826</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1857,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26">
         <v>0.1463414634146341</v>
@@ -1889,13 +1880,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1907,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27">
         <v>0.1384615384615385</v>
@@ -1939,13 +1930,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1957,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.1333333333333333</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1981,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1989,13 +1980,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2007,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.1126760563380282</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2031,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2039,13 +2030,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4615384615384616</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2057,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.1111111111111111</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2081,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2089,13 +2080,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4615384615384616</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2107,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.09836065573770492</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2131,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2139,13 +2130,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4166666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2157,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.09473684210526316</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2181,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2189,13 +2180,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2207,19 +2198,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.07058823529411765</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2231,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>79</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2239,13 +2230,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3571428571428572</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2257,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.03463855421686747</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2281,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2289,13 +2280,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3214285714285715</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2307,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.02777777777777778</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2331,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2339,78 +2330,54 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1282051282051282</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>10</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>68</v>
+        <v>289</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>0.0211038961038961</v>
+      </c>
+      <c r="L36">
+        <v>13</v>
+      </c>
+      <c r="M36">
+        <v>13</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="K36">
-        <v>0.02120141342756184</v>
-      </c>
-      <c r="L36">
-        <v>6</v>
-      </c>
-      <c r="M36">
-        <v>6</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.03691275167785235</v>
-      </c>
-      <c r="C37">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>12</v>
-      </c>
-      <c r="E37">
-        <v>0.08</v>
-      </c>
-      <c r="F37">
-        <v>0.92</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>287</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="K37">
         <v>0.01904761904761905</v>
@@ -2436,10 +2403,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38">
-        <v>0.01785714285714286</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="L38">
         <v>11</v>
@@ -2457,21 +2424,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>605</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K39">
-        <v>0.01759530791788856</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2483,59 +2450,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40">
-        <v>0.01324884792626728</v>
-      </c>
-      <c r="L40">
-        <v>23</v>
-      </c>
-      <c r="M40">
-        <v>23</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41">
-        <v>0.01280409731113956</v>
-      </c>
-      <c r="L41">
-        <v>10</v>
-      </c>
-      <c r="M41">
-        <v>10</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>771</v>
+        <v>1712</v>
       </c>
     </row>
   </sheetData>
